--- a/citation_analysis/output.xlsx
+++ b/citation_analysis/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>c_f_max</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>pvalue</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>statistic</t>
         </is>
@@ -475,18 +480,21 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="D2" t="n">
-        <v>21.37</v>
+        <v>29.37</v>
       </c>
       <c r="E2" t="n">
         <v>3149</v>
       </c>
       <c r="F2" t="n">
+        <v>96.31999999999999</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.24</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -500,18 +508,21 @@
         <v>0.09</v>
       </c>
       <c r="C3" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="D3" t="n">
-        <v>20.33</v>
+        <v>26.9</v>
       </c>
       <c r="E3" t="n">
         <v>2811</v>
       </c>
       <c r="F3" t="n">
+        <v>143.65</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.43</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -525,18 +536,21 @@
         <v>0.1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="D4" t="n">
-        <v>21.5</v>
+        <v>29.58</v>
       </c>
       <c r="E4" t="n">
         <v>3149</v>
       </c>
       <c r="F4" t="n">
+        <v>97.56</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.24</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -550,18 +564,21 @@
         <v>0.1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="D5" t="n">
-        <v>16.05</v>
+        <v>22.84</v>
       </c>
       <c r="E5" t="n">
         <v>2479</v>
       </c>
       <c r="F5" t="n">
+        <v>124.31</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.43</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -578,15 +595,18 @@
         <v>1.57</v>
       </c>
       <c r="D6" t="n">
-        <v>17.38</v>
+        <v>23.11</v>
       </c>
       <c r="E6" t="n">
         <v>5145</v>
       </c>
       <c r="F6" t="n">
+        <v>249.68</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.43</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -600,18 +620,21 @@
         <v>0.09</v>
       </c>
       <c r="C7" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="D7" t="n">
-        <v>37.82</v>
+        <v>48.72</v>
       </c>
       <c r="E7" t="n">
         <v>7208</v>
       </c>
       <c r="F7" t="n">
+        <v>61.04</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.11</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -625,18 +648,21 @@
         <v>0.1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="D8" t="n">
-        <v>24.43</v>
+        <v>33.7</v>
       </c>
       <c r="E8" t="n">
         <v>1868</v>
       </c>
       <c r="F8" t="n">
+        <v>89.17</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.24</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -650,18 +676,21 @@
         <v>0.1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="D9" t="n">
-        <v>23.14</v>
+        <v>30.06</v>
       </c>
       <c r="E9" t="n">
         <v>2479</v>
       </c>
       <c r="F9" t="n">
+        <v>122.37</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.24</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -675,18 +704,21 @@
         <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="D10" t="n">
-        <v>17.26</v>
+        <v>23.89</v>
       </c>
       <c r="E10" t="n">
         <v>2093</v>
       </c>
       <c r="F10" t="n">
+        <v>102.17</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.24</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -703,15 +735,18 @@
         <v>1.57</v>
       </c>
       <c r="D11" t="n">
-        <v>25.15</v>
+        <v>34.13</v>
       </c>
       <c r="E11" t="n">
         <v>7208</v>
       </c>
       <c r="F11" t="n">
+        <v>195.37</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.7</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -728,15 +763,18 @@
         <v>1.55</v>
       </c>
       <c r="D12" t="n">
-        <v>21.54</v>
+        <v>29.12</v>
       </c>
       <c r="E12" t="n">
         <v>2680</v>
       </c>
       <c r="F12" t="n">
+        <v>105.91</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.24</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -750,18 +788,21 @@
         <v>0.1</v>
       </c>
       <c r="C13" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="D13" t="n">
-        <v>17.31</v>
+        <v>24.57</v>
       </c>
       <c r="E13" t="n">
         <v>1868</v>
       </c>
       <c r="F13" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.24</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -775,18 +816,21 @@
         <v>0.1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="D14" t="n">
-        <v>16.81</v>
+        <v>22.35</v>
       </c>
       <c r="E14" t="n">
         <v>2479</v>
       </c>
       <c r="F14" t="n">
+        <v>131.18</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.43</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -803,15 +847,18 @@
         <v>1.58</v>
       </c>
       <c r="D15" t="n">
-        <v>18.44</v>
+        <v>25.62</v>
       </c>
       <c r="E15" t="n">
         <v>1832</v>
       </c>
       <c r="F15" t="n">
+        <v>103.31</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.24</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/citation_analysis/output.xlsx
+++ b/citation_analysis/output.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pvalue</t>
+          <t>pvalue_ks</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>pvalue_chi2</t>
         </is>
       </c>
     </row>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C2" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="D2" t="n">
         <v>29.37</v>
@@ -495,7 +495,7 @@
         <v>0.24</v>
       </c>
       <c r="H2" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="D3" t="n">
         <v>26.9</v>
@@ -523,7 +523,7 @@
         <v>0.43</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         <v>0.24</v>
       </c>
       <c r="H4" t="n">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="D5" t="n">
         <v>22.84</v>
@@ -579,7 +579,7 @@
         <v>0.43</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6">
@@ -607,7 +607,7 @@
         <v>0.43</v>
       </c>
       <c r="H6" t="n">
-        <v>0.26</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         <v>0.09</v>
       </c>
       <c r="C7" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="D7" t="n">
         <v>48.72</v>
@@ -635,7 +635,7 @@
         <v>0.11</v>
       </c>
       <c r="H7" t="n">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="8">
@@ -648,7 +648,7 @@
         <v>0.1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="D8" t="n">
         <v>33.7</v>
@@ -663,7 +663,7 @@
         <v>0.24</v>
       </c>
       <c r="H8" t="n">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="9">
@@ -676,7 +676,7 @@
         <v>0.1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="D9" t="n">
         <v>30.06</v>
@@ -691,7 +691,7 @@
         <v>0.24</v>
       </c>
       <c r="H9" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
@@ -704,7 +704,7 @@
         <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="D10" t="n">
         <v>23.89</v>
@@ -719,7 +719,7 @@
         <v>0.24</v>
       </c>
       <c r="H10" t="n">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -732,7 +732,7 @@
         <v>0.09</v>
       </c>
       <c r="C11" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="D11" t="n">
         <v>34.13</v>
@@ -747,7 +747,7 @@
         <v>0.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0.21</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="12">
@@ -775,7 +775,7 @@
         <v>0.24</v>
       </c>
       <c r="H12" t="n">
-        <v>0.32</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="13">
@@ -788,7 +788,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="D13" t="n">
         <v>24.57</v>
@@ -803,7 +803,7 @@
         <v>0.24</v>
       </c>
       <c r="H13" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="14">
@@ -816,7 +816,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="D14" t="n">
         <v>22.35</v>
@@ -831,7 +831,7 @@
         <v>0.43</v>
       </c>
       <c r="H14" t="n">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -844,7 +844,7 @@
         <v>0.09</v>
       </c>
       <c r="C15" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="D15" t="n">
         <v>25.62</v>
@@ -859,7 +859,7 @@
         <v>0.24</v>
       </c>
       <c r="H15" t="n">
-        <v>0.32</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>

--- a/citation_analysis/output.xlsx
+++ b/citation_analysis/output.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C2" t="n">
-        <v>1.51</v>
+        <v>1.15</v>
       </c>
       <c r="D2" t="n">
-        <v>29.37</v>
+        <v>12.65</v>
       </c>
       <c r="E2" t="n">
-        <v>3149</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
-        <v>96.31999999999999</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.64</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="D3" t="n">
-        <v>26.9</v>
+        <v>13.16</v>
       </c>
       <c r="E3" t="n">
-        <v>2811</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>143.65</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.57</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -533,25 +533,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="C4" t="n">
-        <v>1.7</v>
+        <v>1.11</v>
       </c>
       <c r="D4" t="n">
-        <v>29.58</v>
+        <v>10.94</v>
       </c>
       <c r="E4" t="n">
-        <v>3149</v>
+        <v>146</v>
       </c>
       <c r="F4" t="n">
-        <v>97.56</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -561,25 +561,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="C5" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
       <c r="D5" t="n">
-        <v>22.84</v>
+        <v>9.1</v>
       </c>
       <c r="E5" t="n">
-        <v>2479</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>124.31</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
@@ -589,25 +589,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C6" t="n">
-        <v>1.57</v>
+        <v>1.11</v>
       </c>
       <c r="D6" t="n">
-        <v>23.11</v>
+        <v>10.7</v>
       </c>
       <c r="E6" t="n">
-        <v>5145</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>249.68</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
@@ -617,25 +617,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="C7" t="n">
-        <v>1.66</v>
+        <v>1.16</v>
       </c>
       <c r="D7" t="n">
-        <v>48.72</v>
+        <v>19.59</v>
       </c>
       <c r="E7" t="n">
-        <v>7208</v>
+        <v>207</v>
       </c>
       <c r="F7" t="n">
-        <v>61.04</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8">
@@ -645,25 +645,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="C8" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="D8" t="n">
-        <v>33.7</v>
+        <v>14.46</v>
       </c>
       <c r="E8" t="n">
-        <v>1868</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>89.17</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9">
@@ -673,25 +673,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C9" t="n">
-        <v>1.41</v>
+        <v>1.15</v>
       </c>
       <c r="D9" t="n">
-        <v>30.06</v>
+        <v>17.38</v>
       </c>
       <c r="E9" t="n">
-        <v>2479</v>
+        <v>118</v>
       </c>
       <c r="F9" t="n">
-        <v>122.37</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.64</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10">
@@ -701,25 +701,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="D10" t="n">
-        <v>23.89</v>
+        <v>11.37</v>
       </c>
       <c r="E10" t="n">
-        <v>2093</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>102.17</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11">
@@ -729,25 +729,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="C11" t="n">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="D11" t="n">
-        <v>34.13</v>
+        <v>13.09</v>
       </c>
       <c r="E11" t="n">
-        <v>7208</v>
+        <v>99</v>
       </c>
       <c r="F11" t="n">
-        <v>195.37</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.58</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="12">
@@ -757,25 +757,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="C12" t="n">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
       <c r="D12" t="n">
-        <v>29.12</v>
+        <v>13.12</v>
       </c>
       <c r="E12" t="n">
-        <v>2680</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>105.91</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.57</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="13">
@@ -785,25 +785,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="C13" t="n">
-        <v>1.58</v>
+        <v>1.1</v>
       </c>
       <c r="D13" t="n">
-        <v>24.57</v>
+        <v>10.13</v>
       </c>
       <c r="E13" t="n">
-        <v>1868</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>101.6</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="14">
@@ -813,25 +813,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="C14" t="n">
-        <v>1.57</v>
+        <v>1.12</v>
       </c>
       <c r="D14" t="n">
-        <v>22.35</v>
+        <v>11.09</v>
       </c>
       <c r="E14" t="n">
-        <v>2479</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>131.18</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.43</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -841,25 +841,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="C15" t="n">
-        <v>1.57</v>
+        <v>1.1</v>
       </c>
       <c r="D15" t="n">
-        <v>25.62</v>
+        <v>10.24</v>
       </c>
       <c r="E15" t="n">
-        <v>1832</v>
+        <v>58</v>
       </c>
       <c r="F15" t="n">
-        <v>103.31</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>

--- a/citation_analysis/output.xlsx
+++ b/citation_analysis/output.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="D2" t="n">
         <v>12.65</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="D3" t="n">
         <v>13.16</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,7 +564,7 @@
         <v>0.17</v>
       </c>
       <c r="C5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="D5" t="n">
         <v>9.1</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="D6" t="n">
         <v>10.7</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>1.17</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="C9" t="n">
         <v>1.15</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="C10" t="n">
         <v>1.14</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="C11" t="n">
         <v>1.16</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/citation_analysis/output.xlsx
+++ b/citation_analysis/output.xlsx
@@ -492,10 +492,10 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -548,10 +548,10 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -576,10 +576,10 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6">
@@ -604,10 +604,10 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8">
@@ -660,10 +660,10 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="9">
@@ -688,10 +688,10 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -716,10 +716,10 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11">
@@ -744,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="12">
@@ -772,10 +772,10 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="13">
@@ -800,10 +800,10 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="14">
@@ -828,10 +828,10 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="15">
@@ -856,10 +856,10 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>

--- a/citation_analysis/output.xlsx
+++ b/citation_analysis/output.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="C2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="D2" t="n">
         <v>12.65</v>
@@ -508,7 +508,7 @@
         <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="D3" t="n">
         <v>13.16</v>
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="C5" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="D5" t="n">
         <v>9.1</v>
@@ -620,7 +620,7 @@
         <v>0.03</v>
       </c>
       <c r="C7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="D7" t="n">
         <v>19.59</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>1.17</v>
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="C10" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="D10" t="n">
         <v>11.37</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="C11" t="n">
         <v>1.16</v>
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="D13" t="n">
         <v>10.13</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="C15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="D15" t="n">
         <v>10.24</v>
@@ -859,7 +859,7 @@
         <v>0.43</v>
       </c>
       <c r="H15" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
